--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2613496.746721144</v>
+        <v>-2616429.25569046</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365404</v>
+        <v>10077562.50365403</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16424277.70212711</v>
+        <v>16424277.7021271</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>320.9596570282553</v>
+        <v>338.8179590817903</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.8939792152981</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>266.6210949690525</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660812</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>369.7983081316357</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.71396007345139</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.66075074687579</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>405.339001364369</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1421,7 +1421,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>197.6600124601322</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>64.44601915223804</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>81.37259901119261</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,7 +2479,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308926</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
@@ -2770,16 +2770,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096042</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378.1446555862789</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>764.7444956504007</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4510,13 +4510,13 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1005.851911253701</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1005.851911253701</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.001293180573</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.213040582329</v>
       </c>
       <c r="F11" t="n">
         <v>794.2271357927214</v>
@@ -5069,22 +5069,22 @@
         <v>4605.365889165442</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5179,16 +5179,16 @@
         <v>326.1278469160577</v>
       </c>
       <c r="D13" t="n">
-        <v>261.030857873393</v>
+        <v>176.011207503722</v>
       </c>
       <c r="E13" t="n">
-        <v>261.030857873393</v>
+        <v>176.011207503722</v>
       </c>
       <c r="F13" t="n">
-        <v>261.030857873393</v>
+        <v>176.011207503722</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>176.011207503722</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,19 +5416,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5650,16 +5650,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,7 +5838,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,16 +5996,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,10 +6169,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6601,31 +6601,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,16 +6640,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150024</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942654</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7315,28 +7315,28 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.31323474275223</v>
+        <v>26.45493268921723</v>
       </c>
       <c r="D2" t="n">
-        <v>262.4107110985721</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>85.14112624278619</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>72.2418869678075</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.537044377341999</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.16945386597432</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>59.08139078076131</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1174846.159374206</v>
+        <v>1174846.159374205</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185974</v>
+        <v>936391.4095185975</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>7852.63761495071</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363168</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339489</v>
+        <v>95396.83018339484</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,7 +26427,7 @@
         <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670438</v>
@@ -26439,25 +26439,25 @@
         <v>13058.4518647639</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="L4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="O4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-768223.7874613487</v>
+        <v>-768686.6193251136</v>
       </c>
       <c r="C6" t="n">
         <v>-283923.5839911409</v>
@@ -26528,19 +26528,19 @@
         <v>-283923.5839911411</v>
       </c>
       <c r="E6" t="n">
-        <v>-1043057.307183791</v>
+        <v>-1043093.510037487</v>
       </c>
       <c r="F6" t="n">
-        <v>-114042.7600405284</v>
+        <v>-114077.4979659639</v>
       </c>
       <c r="G6" t="n">
-        <v>-106190.1224255775</v>
+        <v>-106224.8603510133</v>
       </c>
       <c r="H6" t="n">
-        <v>-106190.1224255775</v>
+        <v>-106224.8603510133</v>
       </c>
       <c r="I6" t="n">
-        <v>-135650.2857123111</v>
+        <v>-135650.285712311</v>
       </c>
       <c r="J6" t="n">
         <v>-292645.7869112723</v>
@@ -26552,10 +26552,10 @@
         <v>-116222.5677186793</v>
       </c>
       <c r="M6" t="n">
-        <v>-240431.0784267378</v>
+        <v>-240431.0784267379</v>
       </c>
       <c r="N6" t="n">
-        <v>-135650.2857123111</v>
+        <v>-135650.285712311</v>
       </c>
       <c r="O6" t="n">
         <v>-116222.5677186793</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>92.27233052211085</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>214.2811113687835</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513319</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233688</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.13206194062604</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.5270086439616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.77321189969338</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,28 +32084,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622667</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402485</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37321,13 +37321,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
